--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437703.9625759143</v>
+        <v>439644.0424456971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592083</v>
+        <v>925407.2786592086</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.43010407512111</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -716,16 +718,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>109.8489596931843</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>98.72987271172178</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>180.7782379014808</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>219.4759005688517</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
         <v>274.2838073416025</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.7736570458744</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>9.037615104226628</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J7" t="n">
-        <v>84.37801704792682</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>59.33202238395851</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>173.7976853918352</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>5.52197897182606</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15242676576018</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.6226671993474</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>25.25982230553505</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1619,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>190.9446209095804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>37.05763646578577</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1704,7 +1706,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>35.90507490100135</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>218.8166234342893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.75502769643857</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="T18" t="n">
         <v>198.3825319082687</v>
@@ -1980,10 +1982,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="X20" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="I20" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>35.70559250379682</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>274.2838073416025</v>
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>27.17024370596147</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>19.4228580136398</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11.02353771150021</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="G22" t="n">
         <v>167.8895889301081</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>36.36486963835937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2408,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>113.378771056466</v>
       </c>
       <c r="G24" t="n">
         <v>136.0232102050423</v>
@@ -2415,7 +2417,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
         <v>198.3825319082687</v>
@@ -2454,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>225.3376963440327</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.5891775064833</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>98.21485460049368</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>66.59634294816699</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="X29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E29" t="n">
+      <c r="Y29" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F29" t="n">
-        <v>99.73835480560622</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>141.8508227008771</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>42.47366078530398</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>3.047561543098336</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,70 +3034,70 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.5891775064833</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>9.037615104226541</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>23.47960256112346</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3171,10 +3173,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>226.0165555563027</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>113.429186722532</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,70 +3502,70 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="W38" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C38" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>274.2838073416025</v>
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>58.5528868978125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.57657371040608</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>11.02353771150032</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="C41" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>17.96478317550064</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3885,7 +3887,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>153.4237150659563</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>108.6461907720114</v>
       </c>
       <c r="C45" t="n">
-        <v>115.214776656314</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4331,10 +4333,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623907</v>
@@ -4355,22 +4357,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>1055.28663939154</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>830.0693492941459</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U2" t="n">
-        <v>576.0514062875353</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V2" t="n">
-        <v>576.0514062875353</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="W2" t="n">
-        <v>576.0514062875353</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="X2" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y2" t="n">
         <v>21.9427045873282</v>
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.8983197263226</v>
+        <v>724.3642424684999</v>
       </c>
       <c r="C3" t="n">
-        <v>220.8983197263226</v>
+        <v>551.6111273903171</v>
       </c>
       <c r="D3" t="n">
-        <v>220.8983197263226</v>
+        <v>404.0228207492609</v>
       </c>
       <c r="E3" t="n">
-        <v>220.8983197263226</v>
+        <v>404.0228207492609</v>
       </c>
       <c r="F3" t="n">
-        <v>220.8983197263226</v>
+        <v>259.0670307658778</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>121.6698487405825</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L3" t="n">
-        <v>416.655578933882</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M3" t="n">
-        <v>688.1965482020685</v>
+        <v>293.4836738555147</v>
       </c>
       <c r="N3" t="n">
-        <v>688.1965482020685</v>
+        <v>565.0246431237011</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>832.9042621010219</v>
       </c>
       <c r="P3" t="n">
         <v>1015.957061350112</v>
@@ -4431,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>220.8983197263226</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>220.8983197263226</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>220.8983197263226</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y3" t="n">
-        <v>220.8983197263226</v>
+        <v>891.4067935900604</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
         <v>21.9427045873282</v>
@@ -4507,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4589,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>298.9970554374318</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="X5" t="n">
-        <v>298.9970554374318</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>26.22704853682407</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>274.3046529787421</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>545.8456222469285</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N6" t="n">
-        <v>817.386591515115</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4677,19 +4679,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>1088.006325220726</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7550817463274</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>601.2405900796607</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>394.7136914852382</v>
       </c>
       <c r="Y6" t="n">
-        <v>1097.13522936641</v>
+        <v>188.9852557088886</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I7" t="n">
-        <v>122.096671017389</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
         <v>36.86635076695784</v>
@@ -4744,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E8" t="n">
-        <v>21.9427045873282</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9427045873282</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
         <v>1093.116282134284</v>
@@ -4826,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169.25135696049</v>
+        <v>342.2841263065671</v>
       </c>
       <c r="C9" t="n">
-        <v>169.25135696049</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D9" t="n">
-        <v>169.25135696049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>169.25135696049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>169.25135696049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>169.25135696049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4884,49 +4886,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>29.3360154338131</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>277.9660032696079</v>
+        <v>627.0237902632265</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377944</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>169.25135696049</v>
+        <v>921.5820117988997</v>
       </c>
       <c r="X9" t="n">
-        <v>169.25135696049</v>
+        <v>715.0551132044772</v>
       </c>
       <c r="Y9" t="n">
-        <v>169.25135696049</v>
+        <v>509.3266774281276</v>
       </c>
     </row>
     <row r="10">
@@ -4981,7 +4983,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>197.0852779911487</v>
       </c>
       <c r="R10" t="n">
         <v>21.9427045873282</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="C11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="D11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="E11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F11" t="n">
-        <v>22.60864108688619</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G11" t="n">
-        <v>22.60864108688619</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H11" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I11" t="n">
         <v>22.60864108688619</v>
@@ -5054,7 +5056,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5063,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>953.8515700725947</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="S11" t="n">
-        <v>745.907174392252</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="T11" t="n">
-        <v>520.6898842948577</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="U11" t="n">
-        <v>266.6719412882472</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="V11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="W11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="X11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.60864108688619</v>
+        <v>1061.06897431207</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.9427045873282</v>
+        <v>698.8492704427069</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9427045873282</v>
+        <v>526.0961553645241</v>
       </c>
       <c r="D12" t="n">
-        <v>21.9427045873282</v>
+        <v>378.5078487234679</v>
       </c>
       <c r="E12" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F12" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G12" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K12" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L12" t="n">
-        <v>168.577974491964</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M12" t="n">
-        <v>359.1441712859057</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N12" t="n">
-        <v>630.6851405540922</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O12" t="n">
         <v>898.564759531413</v>
@@ -5142,28 +5144,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U12" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V12" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W12" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X12" t="n">
-        <v>21.9427045873282</v>
+        <v>1071.620257340617</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.9427045873282</v>
+        <v>865.8918215642674</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="C14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="D14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="E14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G14" t="n">
-        <v>506.9602726118625</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H14" t="n">
-        <v>229.9059217617589</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I14" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J14" t="n">
         <v>21.9427045873282</v>
@@ -5288,10 +5290,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5303,25 +5305,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T14" t="n">
-        <v>953.8515700725947</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>699.833627065984</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="W14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="X14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="Y14" t="n">
-        <v>699.833627065984</v>
+        <v>229.2399852622009</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.0926782448495</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C15" t="n">
-        <v>757.3395631666667</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D15" t="n">
-        <v>609.7512565256106</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E15" t="n">
-        <v>452.1417275284654</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F15" t="n">
-        <v>307.1859375450822</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G15" t="n">
-        <v>169.7887555197869</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H15" t="n">
-        <v>58.21045701258208</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
@@ -5361,19 +5363,19 @@
         <v>168.577974491964</v>
       </c>
       <c r="L15" t="n">
-        <v>204.9955038364183</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="M15" t="n">
-        <v>476.5364731046047</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N15" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O15" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P15" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I16" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5455,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E17" t="n">
-        <v>22.60864108688619</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="F17" t="n">
-        <v>22.60864108688619</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G17" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
         <v>1093.116282134284</v>
@@ -5537,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.60864108688619</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C18" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
@@ -5601,43 +5603,43 @@
         <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>416.655578933882</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N18" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O18" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P18" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838487</v>
+        <v>936.0212770773536</v>
       </c>
       <c r="T18" t="n">
-        <v>630.4290419169106</v>
+        <v>735.6348812104155</v>
       </c>
       <c r="U18" t="n">
-        <v>403.5026004348891</v>
+        <v>508.7084397283941</v>
       </c>
       <c r="V18" t="n">
-        <v>403.5026004348891</v>
+        <v>274.4571962539949</v>
       </c>
       <c r="W18" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X18" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y18" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
         <v>21.9427045873282</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.014623461966</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C20" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D20" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E20" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F20" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G20" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H20" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I20" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J20" t="n">
         <v>21.9427045873282</v>
@@ -5774,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1061.06897431207</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>1061.06897431207</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>1061.06897431207</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>1061.06897431207</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V20" t="n">
-        <v>1061.06897431207</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W20" t="n">
-        <v>1061.06897431207</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X20" t="n">
-        <v>1061.06897431207</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y20" t="n">
-        <v>784.014623461966</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>358.2955017516178</v>
+        <v>196.9757018404666</v>
       </c>
       <c r="C21" t="n">
-        <v>358.2955017516178</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D21" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
@@ -5832,22 +5834,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>21.9427045873282</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M21" t="n">
-        <v>277.9660032696079</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N21" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O21" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P21" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
@@ -5862,19 +5864,19 @@
         <v>630.4290419169106</v>
       </c>
       <c r="U21" t="n">
-        <v>610.8099934182845</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V21" t="n">
-        <v>610.8099934182845</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="W21" t="n">
-        <v>358.2955017516178</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="X21" t="n">
-        <v>358.2955017516178</v>
+        <v>196.9757018404666</v>
       </c>
       <c r="Y21" t="n">
-        <v>358.2955017516178</v>
+        <v>196.9757018404666</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F22" t="n">
-        <v>1086.000342789137</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C23" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>783.348686962408</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="H23" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I23" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J23" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K23" t="n">
         <v>143.241092649432</v>
@@ -6023,16 +6025,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="W23" t="n">
         <v>820.0808785163064</v>
       </c>
-      <c r="W23" t="n">
-        <v>543.0265276662028</v>
-      </c>
       <c r="X23" t="n">
-        <v>265.9721768160992</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>573.4835041003568</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="C24" t="n">
-        <v>573.4835041003568</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="D24" t="n">
-        <v>573.4835041003568</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="E24" t="n">
-        <v>415.8739751032115</v>
+        <v>472.8195129197653</v>
       </c>
       <c r="F24" t="n">
-        <v>270.9181851198283</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G24" t="n">
-        <v>133.521003094533</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H24" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
@@ -6093,25 +6095,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S24" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T24" t="n">
-        <v>801.0973387912989</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U24" t="n">
-        <v>801.0973387912989</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="V24" t="n">
-        <v>573.4835041003568</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="W24" t="n">
-        <v>573.4835041003568</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="X24" t="n">
-        <v>573.4835041003568</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="Y24" t="n">
-        <v>573.4835041003568</v>
+        <v>630.4290419169106</v>
       </c>
     </row>
     <row r="25">
@@ -6172,13 +6174,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
         <v>21.9427045873282</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>543.0265276662028</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C26" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6263,13 +6265,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W26" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X26" t="n">
-        <v>820.0808785163064</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y26" t="n">
-        <v>820.0808785163064</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>236.8000445093611</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="C27" t="n">
-        <v>236.8000445093611</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="D27" t="n">
-        <v>89.21173786830497</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="E27" t="n">
-        <v>89.21173786830497</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F27" t="n">
-        <v>89.21173786830497</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G27" t="n">
         <v>21.9427045873282</v>
@@ -6303,52 +6305,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>26.22704853682407</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L27" t="n">
-        <v>274.3046529787421</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M27" t="n">
-        <v>545.8456222469285</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N27" t="n">
-        <v>817.386591515115</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O27" t="n">
-        <v>817.386591515115</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U27" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8839858920107</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="W27" t="n">
-        <v>610.3694942253441</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="X27" t="n">
-        <v>403.8425956309216</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="Y27" t="n">
-        <v>403.8425956309216</v>
+        <v>403.5026004348891</v>
       </c>
     </row>
     <row r="28">
@@ -6406,13 +6408,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T28" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U28" t="n">
         <v>21.9427045873282</v>
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>676.7972192224911</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C29" t="n">
-        <v>676.7972192224911</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D29" t="n">
-        <v>399.7428683723875</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E29" t="n">
-        <v>122.688517522284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F29" t="n">
         <v>21.9427045873282</v>
@@ -6464,19 +6466,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6485,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W29" t="n">
-        <v>953.8515700725947</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X29" t="n">
-        <v>953.8515700725947</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.8515700725947</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="30">
@@ -6546,46 +6548,46 @@
         <v>161.1846636454791</v>
       </c>
       <c r="L30" t="n">
-        <v>409.2622680873972</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M30" t="n">
-        <v>549.5069725377944</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N30" t="n">
-        <v>549.5069725377944</v>
+        <v>704.266602181852</v>
       </c>
       <c r="O30" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P30" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>1054.232541704487</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T30" t="n">
-        <v>1054.232541704487</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U30" t="n">
-        <v>1054.232541704487</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V30" t="n">
-        <v>819.9812982300876</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="W30" t="n">
-        <v>567.466806563421</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="X30" t="n">
-        <v>567.466806563421</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.7383707870715</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="31">
@@ -6643,16 +6645,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S31" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T31" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V31" t="n">
         <v>21.9427045873282</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C32" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D32" t="n">
-        <v>853.1057571376389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E32" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F32" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G32" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
         <v>21.9427045873282</v>
@@ -6701,19 +6703,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6722,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="W32" t="n">
-        <v>853.1057571376389</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="X32" t="n">
-        <v>853.1057571376389</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="Y32" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>183.0566568763846</v>
+        <v>31.07160873301157</v>
       </c>
       <c r="C33" t="n">
-        <v>183.0566568763846</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>183.0566568763846</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
-        <v>183.0566568763846</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F33" t="n">
-        <v>183.0566568763846</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G33" t="n">
-        <v>45.65947485108927</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H33" t="n">
         <v>21.9427045873282</v>
@@ -6780,22 +6782,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4136198757311</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M33" t="n">
-        <v>548.9545891439176</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N33" t="n">
-        <v>748.0774423727912</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6807,22 +6809,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U33" t="n">
-        <v>669.8223920174504</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V33" t="n">
-        <v>435.5711485430513</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W33" t="n">
-        <v>183.0566568763846</v>
+        <v>610.3694942253441</v>
       </c>
       <c r="X33" t="n">
-        <v>183.0566568763846</v>
+        <v>403.8425956309216</v>
       </c>
       <c r="Y33" t="n">
-        <v>183.0566568763846</v>
+        <v>198.114159854572</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6888,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W34" t="n">
         <v>916.4148994253914</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>576.0514062875353</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C35" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D35" t="n">
-        <v>576.0514062875353</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="E35" t="n">
-        <v>576.0514062875353</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F35" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6971,16 +6973,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="X35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="Y35" t="n">
-        <v>820.0808785163064</v>
+        <v>853.7716936371969</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>644.8494452870956</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
-        <v>472.0963302089128</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D36" t="n">
-        <v>324.5080235678566</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E36" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
         <v>21.9427045873282</v>
@@ -7014,22 +7016,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N36" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O36" t="n">
-        <v>1088.375177389425</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P36" t="n">
         <v>1097.13522936641</v>
@@ -7041,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>926.4669324920217</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U36" t="n">
-        <v>926.4669324920217</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V36" t="n">
-        <v>926.4669324920217</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W36" t="n">
-        <v>926.4669324920217</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X36" t="n">
-        <v>926.4669324920217</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y36" t="n">
-        <v>811.891996408656</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="U37" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V37" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C38" t="n">
         <v>21.9427045873282</v>
@@ -7208,16 +7210,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X38" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y38" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>499.8936553037125</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="C39" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
         <v>21.9427045873282</v>
@@ -7251,16 +7253,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M39" t="n">
-        <v>548.9545891439176</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N39" t="n">
         <v>630.6851405540922</v>
@@ -7278,25 +7280,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>726.0805366250836</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U39" t="n">
-        <v>726.0805366250836</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V39" t="n">
-        <v>726.0805366250836</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W39" t="n">
-        <v>726.0805366250836</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X39" t="n">
-        <v>726.0805366250836</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="Y39" t="n">
-        <v>666.936206425273</v>
+        <v>183.0566568763846</v>
       </c>
     </row>
     <row r="40">
@@ -7309,19 +7311,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="C40" t="n">
-        <v>928.1084082237813</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>927.5497860026644</v>
       </c>
       <c r="H40" t="n">
         <v>916.4148994253914</v>
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>265.9721768160992</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="C41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="D41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="E41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="F41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K41" t="n">
         <v>143.241092649432</v>
@@ -7439,22 +7441,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T41" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U41" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V41" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371968</v>
       </c>
       <c r="W41" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870932</v>
       </c>
       <c r="X41" t="n">
-        <v>820.0808785163064</v>
+        <v>576.7173427870932</v>
       </c>
       <c r="Y41" t="n">
-        <v>543.0265276662028</v>
+        <v>576.7173427870932</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L42" t="n">
-        <v>204.9955038364183</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M42" t="n">
-        <v>476.5364731046047</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N42" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
@@ -7521,16 +7523,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>870.2087878843885</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V42" t="n">
-        <v>635.9575444099894</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W42" t="n">
-        <v>383.4430527433227</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X42" t="n">
-        <v>176.9161541489002</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
         <v>21.9427045873282</v>
@@ -7591,22 +7593,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S43" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T43" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U43" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W43" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="X43" t="n">
         <v>21.9427045873282</v>
@@ -7625,43 +7627,43 @@
         <v>820.0808785163064</v>
       </c>
       <c r="C44" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="D44" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="E44" t="n">
         <v>543.0265276662028</v>
       </c>
-      <c r="D44" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="E44" t="n">
-        <v>21.9427045873282</v>
-      </c>
       <c r="F44" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G44" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H44" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I44" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J44" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K44" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
         <v>1093.116282134284</v>
@@ -7688,7 +7690,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
         <v>820.0808785163064</v>
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.3212668664333</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="C45" t="n">
-        <v>21.9427045873282</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9427045873282</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F45" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H45" t="n">
         <v>21.9427045873282</v>
@@ -7725,22 +7727,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L45" t="n">
-        <v>204.9955038364183</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M45" t="n">
-        <v>476.5364731046047</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N45" t="n">
-        <v>748.0774423727912</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O45" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P45" t="n">
         <v>1015.957061350112</v>
@@ -7761,16 +7763,16 @@
         <v>830.8154377838487</v>
       </c>
       <c r="V45" t="n">
-        <v>596.5641943094495</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W45" t="n">
-        <v>344.0497026427828</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="X45" t="n">
-        <v>344.0497026427828</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.3212668664333</v>
+        <v>830.8154377838487</v>
       </c>
     </row>
     <row r="46">
@@ -7834,13 +7836,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -7979,13 +7981,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
         <v>454.8408013884635</v>
@@ -8055,25 +8057,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>269.5263315788349</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>315.5268646522953</v>
       </c>
       <c r="Q3" t="n">
         <v>218.4803792452831</v>
@@ -8292,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7230231510059</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155703</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8453,7 +8455,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
         <v>434.3676631324684</v>
@@ -8532,25 +8534,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>389.722084928306</v>
+        <v>351.0738258308815</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8702,13 +8704,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,22 +8768,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>331.0717909466363</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>402.3419766228525</v>
+        <v>348.0193027921887</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -8936,7 +8938,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
         <v>396.0321885132552</v>
@@ -9009,10 +9011,10 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>171.8759034615937</v>
+        <v>327.5816281580458</v>
       </c>
       <c r="M15" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
         <v>402.3419766228525</v>
@@ -9021,10 +9023,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9164,7 +9166,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
         <v>434.3676631324684</v>
@@ -9249,10 +9251,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2514961538888</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9261,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9419,7 +9421,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,16 +9482,16 @@
         <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>397.1900756823312</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N21" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9498,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9951,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>138.7230231510059</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9966,13 +9968,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10112,7 +10114,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
@@ -10194,22 +10196,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
-        <v>280.2420007006317</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
-        <v>409.6168120477987</v>
+        <v>335.2921033328898</v>
       </c>
       <c r="P30" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10349,7 +10351,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
@@ -10428,7 +10430,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>143.2439403504901</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10437,7 +10439,7 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
-        <v>329.1923644619304</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10446,7 +10448,7 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10662,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
         <v>134.395403</v>
@@ -10674,13 +10676,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
         <v>136.482229733871</v>
@@ -10841,7 +10843,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,19 +10901,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>210.6142818167799</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11136,28 +11138,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
         <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>312.5243469546755</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11297,7 +11299,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -11373,25 +11375,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>312.5243469546755</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>412.8644904155703</v>
+        <v>280.2420007006317</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>218.4803792452831</v>
@@ -22595,7 +22597,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>164.4348476484181</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.5777917895669</v>
+        <v>261.0126394379851</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>11.73264281041099</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>51.13049313817427</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -22692,7 +22694,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>63.6842650835742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22805,7 +22807,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>32.00186300769272</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>109.6002166286337</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
         <v>112.4032644096333</v>
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.59846856447039</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,19 +22919,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>215.6195619629746</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J7" t="n">
-        <v>4.460827879852118</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -23027,22 +23029,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>347.4124432514906</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -23115,10 +23117,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>51.13049313817427</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>76.19166135816488</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="R10" t="n">
-        <v>74.23872090402212</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23267,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>106.1452301970803</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>86.91055432317197</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -23352,10 +23354,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>104.1537809005699</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>179.2018073029432</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23507,16 +23509,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>223.9101444942506</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>291.4755850567336</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.59846856447032</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23671,13 +23673,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23738,22 +23740,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>32.66114014225516</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23820,16 +23822,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>98.75120438711073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.458801139478624</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
         <v>222.3574069614225</v>
@@ -23944,7 +23946,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23969,7 +23971,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -23984,13 +23986,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>106.1452301970803</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
@@ -24023,16 +24025,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>9.888586070061081</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y20" t="n">
         <v>112.4032644096333</v>
@@ -24048,10 +24050,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>143.8553402214395</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -24060,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24102,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>205.2343190535614</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24136,7 +24138,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>135.1354836983043</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>370.9289938421815</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0.6592771345624158</v>
@@ -24263,16 +24265,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.0978942447525</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24294,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>30.12746102708331</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24344,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>6.571034695622473</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -24412,7 +24414,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
         <v>228.3324659915077</v>
@@ -24421,7 +24423,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>92.70128833734015</v>
       </c>
       <c r="D26" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -24455,10 +24457,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24503,10 +24505,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>108.9409394940712</v>
       </c>
       <c r="X26" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -24519,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>57.81857910668015</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>69.42686725687533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -24646,16 +24648,16 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>280.5302914192382</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24683,13 +24685,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>307.5555086749346</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>414.8547654038309</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
@@ -24740,13 +24742,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>108.9409394940712</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>126.4879531203404</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>228.8611694965568</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -24883,7 +24885,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>222.3574069614225</v>
@@ -24892,10 +24894,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>247.4143720951131</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24920,19 +24922,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E32" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -24974,16 +24976,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W32" t="n">
-        <v>108.9409394940712</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>286.9487169456296</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>161.9879688231744</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -25008,10 +25010,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>86.98291296100932</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
         <v>86.50354346547167</v>
@@ -25047,10 +25049,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>49.41933934989927</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>142.1272324849117</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
@@ -25175,7 +25177,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -25220,7 +25222,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>136.0232102050423</v>
@@ -25281,25 +25283,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>23.97279119369736</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.24196469605405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25363,7 +25365,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
-        <v>228.3324659915077</v>
+        <v>49.41933934989927</v>
       </c>
       <c r="U37" t="n">
         <v>286.0522703910642</v>
@@ -25372,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -25448,10 +25450,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X38" t="n">
         <v>96.5777917895669</v>
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>11.5227711612352</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -25518,25 +25520,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.1182645207735</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -25549,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>137.4289928041133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25561,10 +25563,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974165</v>
       </c>
       <c r="I40" t="n">
         <v>153.7585467974036</v>
@@ -25628,7 +25630,7 @@
         <v>109.4326026497926</v>
       </c>
       <c r="C41" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25637,7 +25639,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>310.5684383470187</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25761,7 +25763,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.24743635262973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25833,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
@@ -25843,13 +25845,13 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V43" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>220.6183809604832</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25865,19 +25867,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>108.834228413685</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>173.2655878973476</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25928,10 +25930,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>56.72593483833347</v>
       </c>
       <c r="C45" t="n">
-        <v>55.81080727108697</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>86.50354346547167</v>
@@ -26001,16 +26003,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26074,7 +26076,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
         <v>286.0522703910642</v>
@@ -26083,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>510940.6129218347</v>
+        <v>510940.6129218349</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510940.6129218348</v>
+        <v>510940.6129218349</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>510940.6129218349</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26328,7 @@
         <v>103906.2743054104</v>
       </c>
       <c r="G2" t="n">
-        <v>103906.2743054105</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="H2" t="n">
         <v>103906.2743054104</v>
@@ -26350,7 +26352,7 @@
         <v>103906.2743054104</v>
       </c>
       <c r="O2" t="n">
-        <v>103906.2743054104</v>
+        <v>103906.2743054103</v>
       </c>
       <c r="P2" t="n">
         <v>103906.2743054104</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>8932.273136504818</v>
       </c>
       <c r="D4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="E4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="F4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="G4" t="n">
         <v>8932.273136504818</v>
@@ -26439,7 +26441,7 @@
         <v>8932.273136504818</v>
       </c>
       <c r="J4" t="n">
-        <v>8932.273136504817</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="K4" t="n">
         <v>8932.273136504818</v>
@@ -26451,7 +26453,7 @@
         <v>8932.273136504818</v>
       </c>
       <c r="N4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="O4" t="n">
         <v>8932.273136504818</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47248.86668520368</v>
+        <v>-47248.86668520366</v>
       </c>
       <c r="C6" t="n">
-        <v>44669.94568253617</v>
+        <v>44669.94568253616</v>
       </c>
       <c r="D6" t="n">
-        <v>44669.94568253617</v>
+        <v>44669.94568253618</v>
       </c>
       <c r="E6" t="n">
         <v>78297.54568253615</v>
       </c>
       <c r="F6" t="n">
-        <v>78297.54568253615</v>
+        <v>78297.54568253616</v>
       </c>
       <c r="G6" t="n">
-        <v>78297.54568253621</v>
+        <v>78297.54568253613</v>
       </c>
       <c r="H6" t="n">
         <v>78297.54568253615</v>
       </c>
       <c r="I6" t="n">
+        <v>78297.54568253613</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6532.833194449908</v>
+      </c>
+      <c r="K6" t="n">
+        <v>78297.54568253616</v>
+      </c>
+      <c r="L6" t="n">
+        <v>78297.54568253613</v>
+      </c>
+      <c r="M6" t="n">
         <v>78297.54568253612</v>
       </c>
-      <c r="J6" t="n">
-        <v>6532.833194449922</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>78297.54568253612</v>
       </c>
-      <c r="L6" t="n">
-        <v>78297.54568253615</v>
-      </c>
-      <c r="M6" t="n">
-        <v>78297.54568253615</v>
-      </c>
-      <c r="N6" t="n">
-        <v>78297.54568253615</v>
-      </c>
       <c r="O6" t="n">
-        <v>78297.54568253618</v>
+        <v>78297.5456825361</v>
       </c>
       <c r="P6" t="n">
-        <v>78297.54568253618</v>
+        <v>78297.54568253616</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
         <v>231.1630643817873</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>130.4949932455015</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>184.9018174233233</v>
       </c>
       <c r="Q3" t="n">
         <v>81.99814951141209</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>4.327620151005933</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
         <v>204.4954085367308</v>
@@ -35252,25 +35254,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>251.1414018543382</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,13 +35424,13 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O11" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P11" t="n">
         <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>192.4911078726684</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2838073416025</v>
+        <v>219.9611335109387</v>
       </c>
       <c r="O12" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>200.5762321565626</v>
@@ -35729,10 +35731,10 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
-        <v>36.7853831762164</v>
+        <v>192.4911078726684</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>274.2838073416025</v>
@@ -35741,10 +35743,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L17" t="n">
         <v>204.4954085367308</v>
@@ -35969,10 +35971,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N18" t="n">
-        <v>134.1933268726387</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
@@ -35981,7 +35983,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>258.6093926083634</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36218,7 +36220,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>4.327620151005933</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
@@ -36686,13 +36688,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
         <v>204.4954085367308</v>
@@ -36914,22 +36916,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>141.6613176266638</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
-        <v>270.5854737144654</v>
+        <v>196.2607649995565</v>
       </c>
       <c r="P30" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L32" t="n">
         <v>204.4954085367308</v>
@@ -37148,7 +37150,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>8.84853735049013</v>
       </c>
       <c r="L33" t="n">
         <v>250.5834388302202</v>
@@ -37157,7 +37159,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>201.1341951806804</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>82.55611253552989</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>177.4338266692982</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L44" t="n">
         <v>204.4954085367308</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L45" t="n">
-        <v>177.4338266692982</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2838073416025</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
         <v>81.99814951141209</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439644.0424456971</v>
+        <v>341812.8500496527</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592086</v>
+        <v>925407.278659209</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17533693.5348838</v>
+        <v>17533693.53488381</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>109.8489596931843</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.72987271172178</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,14 +895,14 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>274.2838073416025</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="U6" t="n">
-        <v>9.037615104226628</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -1043,7 +1043,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
-        <v>35.70559250379682</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>94.22875100769883</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>173.7976853918352</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.52197897182606</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>99.73835480560622</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="H11" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>35.70559250379682</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.0305299076875</v>
       </c>
       <c r="X12" t="n">
-        <v>25.25982230553505</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>37.05763646578577</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.5028127661658</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>5.448126808926983</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -1988,10 +1988,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>150.3977678162259</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>27.17024370596147</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>60.47610228039871</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11.02353771150029</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F23" t="n">
-        <v>36.36486963835937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.2838073416025</v>
+        <v>18.62406031006297</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>113.378771056466</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,67 +2557,67 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>109.8489596931843</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T26" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U26" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H26" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>98.21485460049368</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>146.3675904231339</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>264.3952212715415</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>198.3825319082687</v>
@@ -2930,10 +2930,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>3.047561543098336</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>205.8210080975798</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V31" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
         <v>274.2838073416025</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>9.037615104226541</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>28.71632646996931</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>156.1024154016047</v>
+      </c>
+      <c r="G35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D35" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0.8189752490838361</v>
       </c>
       <c r="W36" t="n">
-        <v>226.0165555563027</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>219.4572672897045</v>
       </c>
       <c r="V38" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>159.5028127661658</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>131.3215757952115</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>11.02353771150032</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="V41" t="n">
-        <v>17.96478317550064</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>274.2838073416025</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>174.4097407145713</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3887,7 +3887,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.521978971826058</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.5891775064833</v>
+        <v>241.6226671993476</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>108.6461907720114</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.871490522673608</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>29.907560127089</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E2" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H2" t="n">
         <v>21.9427045873282</v>
@@ -4333,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4357,25 +4357,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>663.9735435886729</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>409.9556005820623</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>132.9012497319588</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>132.9012497319588</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X2" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>724.3642424684999</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>551.6111273903171</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>404.0228207492609</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>404.0228207492609</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>259.0670307658778</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>121.6698487405825</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
         <v>21.9427045873282</v>
@@ -4415,19 +4415,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L3" t="n">
-        <v>21.9427045873282</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M3" t="n">
-        <v>293.4836738555147</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N3" t="n">
-        <v>565.0246431237011</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O3" t="n">
-        <v>832.9042621010219</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4439,22 +4439,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X3" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y3" t="n">
-        <v>891.4067935900604</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4509,16 +4509,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
         <v>21.9427045873282</v>
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C5" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4606,13 +4606,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X5" t="n">
-        <v>576.7173427870933</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.6629919369898</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M6" t="n">
-        <v>630.6851405540922</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N6" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O6" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4676,22 +4676,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U6" t="n">
-        <v>1088.006325220726</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V6" t="n">
-        <v>853.7550817463274</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W6" t="n">
-        <v>601.2405900796607</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X6" t="n">
-        <v>394.7136914852382</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.9852557088886</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4767,10 +4767,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="D8" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E8" t="n">
-        <v>1061.06897431207</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F8" t="n">
-        <v>784.014623461966</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G8" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.2841263065671</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="C9" t="n">
-        <v>169.5310112283843</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="G9" t="n">
         <v>21.9427045873282</v>
@@ -4892,43 +4892,43 @@
         <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>627.0237902632265</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N9" t="n">
-        <v>898.564759531413</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>369.6377528274281</v>
       </c>
       <c r="W9" t="n">
-        <v>921.5820117988997</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="X9" t="n">
-        <v>715.0551132044772</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="Y9" t="n">
-        <v>509.3266774281276</v>
+        <v>117.1232611607614</v>
       </c>
     </row>
     <row r="10">
@@ -4983,19 +4983,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>197.0852779911487</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
         <v>21.9427045873282</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1061.06897431207</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C11" t="n">
-        <v>1061.06897431207</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D11" t="n">
-        <v>1061.06897431207</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E11" t="n">
-        <v>1061.06897431207</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F11" t="n">
-        <v>784.014623461966</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G11" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
         <v>21.9427045873282</v>
@@ -5047,16 +5047,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5065,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>1061.06897431207</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>1061.06897431207</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T11" t="n">
-        <v>1061.06897431207</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U11" t="n">
-        <v>1061.06897431207</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V11" t="n">
-        <v>1061.06897431207</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W11" t="n">
-        <v>1061.06897431207</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X11" t="n">
-        <v>1061.06897431207</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y11" t="n">
-        <v>1061.06897431207</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>698.8492704427069</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C12" t="n">
-        <v>526.0961553645241</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D12" t="n">
-        <v>378.5078487234679</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L12" t="n">
-        <v>409.2622680873972</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M12" t="n">
-        <v>680.8032373555836</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N12" t="n">
-        <v>898.564759531413</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O12" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
@@ -5150,22 +5150,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U12" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V12" t="n">
-        <v>1097.13522936641</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W12" t="n">
-        <v>1097.13522936641</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X12" t="n">
-        <v>1071.620257340617</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y12" t="n">
-        <v>865.8918215642674</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="C13" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E13" t="n">
         <v>21.9427045873282</v>
@@ -5220,31 +5220,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="W13" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="X13" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>229.2399852622009</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="C14" t="n">
-        <v>229.2399852622009</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="D14" t="n">
-        <v>229.2399852622009</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="E14" t="n">
-        <v>229.2399852622009</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="F14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
         <v>21.9427045873282</v>
@@ -5281,19 +5281,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5311,19 +5311,19 @@
         <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>266.6719412882472</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V14" t="n">
-        <v>229.2399852622009</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W14" t="n">
-        <v>229.2399852622009</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X14" t="n">
-        <v>229.2399852622009</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y14" t="n">
-        <v>229.2399852622009</v>
+        <v>243.6355334447542</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C15" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D15" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E15" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
@@ -5363,7 +5363,7 @@
         <v>168.577974491964</v>
       </c>
       <c r="L15" t="n">
-        <v>359.1441712859057</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M15" t="n">
         <v>359.1441712859057</v>
@@ -5387,22 +5387,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U15" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V15" t="n">
-        <v>1097.13522936641</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W15" t="n">
-        <v>1097.13522936641</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X15" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y15" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5460,28 +5460,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S16" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T16" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U16" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V16" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G17" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
         <v>21.9427045873282</v>
@@ -5539,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K18" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L18" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M18" t="n">
-        <v>630.6851405540922</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N18" t="n">
         <v>630.6851405540922</v>
@@ -5621,22 +5621,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>936.0212770773536</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T18" t="n">
-        <v>735.6348812104155</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="U18" t="n">
-        <v>508.7084397283941</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V18" t="n">
-        <v>274.4571962539949</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W18" t="n">
-        <v>21.9427045873282</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X18" t="n">
-        <v>21.9427045873282</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y18" t="n">
         <v>21.9427045873282</v>
@@ -5706,10 +5706,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
         <v>21.9427045873282</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J20" t="n">
         <v>21.9427045873282</v>
@@ -5776,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.13522936641</v>
+        <v>801.9346328844877</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="U20" t="n">
-        <v>853.1057571376389</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="V20" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="W20" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X20" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>196.9757018404666</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="C21" t="n">
-        <v>169.5310112283843</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="D21" t="n">
-        <v>21.9427045873282</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9427045873282</v>
+        <v>391.6729932277962</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>246.717203244413</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H21" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
@@ -5834,49 +5834,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L21" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M21" t="n">
-        <v>630.6851405540922</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T21" t="n">
-        <v>630.4290419169106</v>
+        <v>1036.048257366007</v>
       </c>
       <c r="U21" t="n">
-        <v>403.5026004348891</v>
+        <v>1036.048257366007</v>
       </c>
       <c r="V21" t="n">
-        <v>403.5026004348891</v>
+        <v>801.7970138916081</v>
       </c>
       <c r="W21" t="n">
-        <v>403.5026004348891</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="X21" t="n">
-        <v>196.9757018404666</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="Y21" t="n">
-        <v>196.9757018404666</v>
+        <v>549.2825222249414</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F22" t="n">
-        <v>191.5281479510737</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G22" t="n">
         <v>21.9427045873282</v>
@@ -5949,13 +5949,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>820.0808785163064</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="C23" t="n">
-        <v>820.0808785163064</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D23" t="n">
-        <v>820.0808785163064</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="E23" t="n">
-        <v>820.0808785163064</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="F23" t="n">
-        <v>783.348686962408</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="G23" t="n">
-        <v>506.2943361123045</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="H23" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I23" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J23" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K23" t="n">
         <v>143.241092649432</v>
@@ -6019,22 +6019,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U23" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V23" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W23" t="n">
-        <v>820.0808785163064</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="X23" t="n">
-        <v>820.0808785163064</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="Y23" t="n">
-        <v>820.0808785163064</v>
+        <v>871.9179392690156</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>472.8195129197653</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H24" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M24" t="n">
-        <v>548.9545891439176</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N24" t="n">
         <v>630.6851405540922</v>
@@ -6092,28 +6092,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>830.8154377838487</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="T24" t="n">
-        <v>630.4290419169106</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U24" t="n">
-        <v>630.4290419169106</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V24" t="n">
-        <v>630.4290419169106</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W24" t="n">
-        <v>630.4290419169106</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X24" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y24" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6183,7 +6183,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
         <v>21.9427045873282</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>853.1057571376389</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="C26" t="n">
-        <v>576.0514062875353</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="D26" t="n">
-        <v>576.0514062875353</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="E26" t="n">
-        <v>576.0514062875353</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="F26" t="n">
-        <v>576.0514062875353</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="G26" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6253,25 +6253,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="W26" t="n">
-        <v>853.1057571376389</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="X26" t="n">
-        <v>853.1057571376389</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="Y26" t="n">
-        <v>853.1057571376389</v>
+        <v>132.9012497319588</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>403.5026004348891</v>
+        <v>782.246627312391</v>
       </c>
       <c r="C27" t="n">
-        <v>403.5026004348891</v>
+        <v>609.4935122342081</v>
       </c>
       <c r="D27" t="n">
-        <v>403.5026004348891</v>
+        <v>461.9052055931519</v>
       </c>
       <c r="E27" t="n">
         <v>304.2956765960066</v>
@@ -6305,22 +6305,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M27" t="n">
-        <v>548.9545891439176</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N27" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O27" t="n">
-        <v>1088.375177389425</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6329,28 +6329,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>830.8154377838487</v>
+        <v>949.2891784339514</v>
       </c>
       <c r="T27" t="n">
-        <v>630.4290419169106</v>
+        <v>949.2891784339514</v>
       </c>
       <c r="U27" t="n">
-        <v>403.5026004348891</v>
+        <v>949.2891784339514</v>
       </c>
       <c r="V27" t="n">
-        <v>403.5026004348891</v>
+        <v>949.2891784339514</v>
       </c>
       <c r="W27" t="n">
-        <v>403.5026004348891</v>
+        <v>949.2891784339514</v>
       </c>
       <c r="X27" t="n">
-        <v>403.5026004348891</v>
+        <v>949.2891784339514</v>
       </c>
       <c r="Y27" t="n">
-        <v>403.5026004348891</v>
+        <v>949.2891784339514</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W28" t="n">
         <v>21.9427045873282</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.9427045873282</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="C29" t="n">
-        <v>21.9427045873282</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="D29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F29" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G29" t="n">
         <v>21.9427045873282</v>
@@ -6496,19 +6496,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V29" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W29" t="n">
-        <v>853.1057571376389</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="X29" t="n">
-        <v>576.0514062875353</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.9970554374318</v>
+        <v>566.0629355096959</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
         <v>21.9427045873282</v>
@@ -6545,49 +6545,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1846636454791</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M30" t="n">
-        <v>432.7256329136656</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N30" t="n">
-        <v>704.266602181852</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O30" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>630.4290419169106</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U30" t="n">
-        <v>403.5026004348891</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V30" t="n">
-        <v>400.4242554418605</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W30" t="n">
-        <v>400.4242554418605</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X30" t="n">
-        <v>400.4242554418605</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6645,16 +6645,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
         <v>21.9427045873282</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298.9970554374318</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="C32" t="n">
-        <v>298.9970554374318</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="D32" t="n">
-        <v>21.9427045873282</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="E32" t="n">
-        <v>21.9427045873282</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="F32" t="n">
-        <v>21.9427045873282</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="G32" t="n">
         <v>21.9427045873282</v>
@@ -6703,19 +6703,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6724,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T32" t="n">
-        <v>953.8515700725947</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U32" t="n">
-        <v>953.8515700725947</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V32" t="n">
-        <v>676.7972192224911</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W32" t="n">
-        <v>399.7428683723875</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="X32" t="n">
-        <v>399.7428683723875</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.9970554374318</v>
+        <v>63.79129456219789</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.07160873301157</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C33" t="n">
         <v>21.9427045873282</v>
@@ -6779,25 +6779,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>38.09606741079833</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L33" t="n">
-        <v>286.1736718527163</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M33" t="n">
-        <v>557.7146411209028</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N33" t="n">
-        <v>829.2556103890893</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O33" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6806,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1097.13522936641</v>
+        <v>1068.128838992704</v>
       </c>
       <c r="T33" t="n">
-        <v>1097.13522936641</v>
+        <v>1068.128838992704</v>
       </c>
       <c r="U33" t="n">
-        <v>1097.13522936641</v>
+        <v>841.2023975106822</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8839858920107</v>
+        <v>606.951154036283</v>
       </c>
       <c r="W33" t="n">
-        <v>610.3694942253441</v>
+        <v>606.951154036283</v>
       </c>
       <c r="X33" t="n">
-        <v>403.8425956309216</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y33" t="n">
-        <v>198.114159854572</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>576.7173427870933</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="C35" t="n">
-        <v>299.6629919369898</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="D35" t="n">
-        <v>22.6086410868862</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="E35" t="n">
-        <v>22.6086410868862</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="F35" t="n">
-        <v>22.6086410868862</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G35" t="n">
-        <v>22.6086410868862</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H35" t="n">
-        <v>22.6086410868862</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I35" t="n">
-        <v>22.6086410868862</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6964,25 +6964,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="V35" t="n">
-        <v>853.7716936371969</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="W35" t="n">
-        <v>853.7716936371969</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="X35" t="n">
-        <v>853.7716936371969</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="Y35" t="n">
-        <v>853.7716936371969</v>
+        <v>663.9735435886729</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.9427045873282</v>
+        <v>833.6139358103292</v>
       </c>
       <c r="C36" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="D36" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E36" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F36" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G36" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H36" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I36" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K36" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L36" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M36" t="n">
-        <v>541.5612782974326</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6851405540922</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O36" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R36" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S36" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T36" t="n">
-        <v>896.7488334994719</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U36" t="n">
-        <v>896.7488334994719</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V36" t="n">
-        <v>662.4975900250727</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="W36" t="n">
-        <v>434.1980389581003</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="X36" t="n">
-        <v>227.6711403636777</v>
+        <v>1000.65648693189</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.9427045873282</v>
+        <v>1000.65648693189</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L37" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M37" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N37" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O37" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="C38" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="D38" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="E38" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="F38" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
@@ -7198,28 +7198,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S38" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T38" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="V38" t="n">
-        <v>853.1057571376389</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="W38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="X38" t="n">
-        <v>298.9970554374318</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="Y38" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>183.0566568763846</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
         <v>21.9427045873282</v>
@@ -7256,49 +7256,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>409.2622680873972</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O39" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.13522936641</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T39" t="n">
-        <v>896.7488334994719</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U39" t="n">
-        <v>669.8223920174504</v>
+        <v>668.4492824324993</v>
       </c>
       <c r="V39" t="n">
-        <v>435.5711485430513</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="W39" t="n">
-        <v>183.0566568763846</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>183.0566568763846</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
-        <v>183.0566568763846</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G40" t="n">
-        <v>927.5497860026644</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.6629919369897</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C41" t="n">
-        <v>299.6629919369897</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D41" t="n">
-        <v>299.6629919369897</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E41" t="n">
-        <v>299.6629919369897</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J41" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L41" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P41" t="n">
         <v>1093.116282134284</v>
@@ -7435,28 +7435,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T41" t="n">
-        <v>871.9179392690156</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U41" t="n">
-        <v>871.9179392690156</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V41" t="n">
-        <v>853.7716936371968</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W41" t="n">
-        <v>576.7173427870932</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X41" t="n">
-        <v>576.7173427870932</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y41" t="n">
-        <v>576.7173427870932</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="C42" t="n">
         <v>21.9427045873282</v>
@@ -7502,10 +7502,10 @@
         <v>541.5612782974326</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O42" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P42" t="n">
         <v>1097.13522936641</v>
@@ -7523,19 +7523,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>920.9637740991661</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V42" t="n">
-        <v>686.7125306247669</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W42" t="n">
-        <v>434.1980389581003</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X42" t="n">
-        <v>227.6711403636777</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="C43" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="E43" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="F43" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G43" t="n">
         <v>21.9427045873282</v>
@@ -7593,28 +7593,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V43" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W43" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X43" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.0808785163064</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="C44" t="n">
-        <v>820.0808785163064</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="D44" t="n">
-        <v>820.0808785163064</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="E44" t="n">
-        <v>543.0265276662028</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="F44" t="n">
-        <v>265.9721768160992</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="G44" t="n">
-        <v>21.94270458732819</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H44" t="n">
-        <v>21.94270458732819</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I44" t="n">
-        <v>21.94270458732819</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J44" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
         <v>143.241092649432</v>
@@ -7657,43 +7657,43 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="S44" t="n">
-        <v>1097.13522936641</v>
+        <v>745.9071743922523</v>
       </c>
       <c r="T44" t="n">
-        <v>1097.13522936641</v>
+        <v>520.689884294858</v>
       </c>
       <c r="U44" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882474</v>
       </c>
       <c r="Y44" t="n">
-        <v>820.0808785163064</v>
+        <v>266.6719412882474</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>721.0718107414129</v>
+        <v>671.0519453479071</v>
       </c>
       <c r="C45" t="n">
-        <v>721.0718107414129</v>
+        <v>671.0519453479071</v>
       </c>
       <c r="D45" t="n">
-        <v>573.4835041003568</v>
+        <v>523.463638706851</v>
       </c>
       <c r="E45" t="n">
-        <v>415.8739751032115</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="F45" t="n">
-        <v>270.9181851198283</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G45" t="n">
-        <v>133.521003094533</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H45" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
@@ -7736,43 +7736,43 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M45" t="n">
-        <v>549.5069725377944</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N45" t="n">
-        <v>549.5069725377944</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="O45" t="n">
-        <v>817.386591515115</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P45" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q45" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>830.8154377838487</v>
+        <v>926.4669324920219</v>
       </c>
       <c r="T45" t="n">
-        <v>830.8154377838487</v>
+        <v>923.5664370145738</v>
       </c>
       <c r="U45" t="n">
-        <v>830.8154377838487</v>
+        <v>923.5664370145738</v>
       </c>
       <c r="V45" t="n">
-        <v>830.8154377838487</v>
+        <v>923.5664370145738</v>
       </c>
       <c r="W45" t="n">
-        <v>830.8154377838487</v>
+        <v>671.0519453479071</v>
       </c>
       <c r="X45" t="n">
-        <v>830.8154377838487</v>
+        <v>671.0519453479071</v>
       </c>
       <c r="Y45" t="n">
-        <v>830.8154377838487</v>
+        <v>671.0519453479071</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="C46" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="D46" t="n">
         <v>21.9427045873282</v>
@@ -7812,7 +7812,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M46" t="n">
         <v>108.7246574309869</v>
@@ -7845,13 +7845,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -8063,7 +8063,7 @@
         <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
         <v>412.8644904155703</v>
@@ -8072,13 +8072,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>225.3571079957513</v>
       </c>
       <c r="P3" t="n">
-        <v>315.5268646522953</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8218,7 +8218,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
         <v>434.3676631324684</v>
@@ -8300,13 +8300,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>354.7721594580186</v>
+        <v>249.0736414352243</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8315,7 +8315,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8540,19 +8540,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>351.0738258308815</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8695,7 +8695,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
@@ -8710,7 +8710,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8768,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>171.8759034615937</v>
       </c>
       <c r="M12" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0193027921887</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8929,7 +8929,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9011,10 +9011,10 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>327.5816281580458</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>331.0717909466363</v>
       </c>
       <c r="N15" t="n">
         <v>402.3419766228525</v>
@@ -9242,19 +9242,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>354.7721594580186</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9421,7 +9421,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9482,25 +9482,25 @@
         <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>362.2401502120437</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>143.3589584843393</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,19 +9716,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N24" t="n">
-        <v>210.6142818167799</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
         <v>134.395403</v>
@@ -9962,7 +9962,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N27" t="n">
         <v>402.3419766228525</v>
@@ -9971,7 +9971,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10193,25 +10193,25 @@
         <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O30" t="n">
-        <v>335.2921033328898</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10351,7 +10351,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
@@ -10427,16 +10427,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>143.2439403504901</v>
+        <v>134.395403</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>146.606636852111</v>
       </c>
       <c r="N33" t="n">
         <v>402.3419766228525</v>
@@ -10445,10 +10445,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10676,16 +10676,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>218.0822725708051</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10904,25 +10904,25 @@
         <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7176364193258</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>152.7987578383863</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11150,13 +11150,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N42" t="n">
-        <v>218.0822725708051</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q42" t="n">
         <v>136.482229733871</v>
@@ -11384,19 +11384,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>280.2420007006317</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N45" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>358.9924718442722</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22558,13 +22558,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>407.2938634805408</v>
+        <v>165.7046859740575</v>
       </c>
       <c r="G2" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
@@ -22597,25 +22597,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>261.0126394379851</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>11.73264281041099</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -22679,22 +22679,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>44.95881684231247</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -22761,7 +22761,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -22807,7 +22807,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>109.6002166286337</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
         <v>96.5777917895669</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22916,10 +22916,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>44.95881684231239</v>
       </c>
       <c r="U6" t="n">
-        <v>215.6195619629746</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y7" t="n">
         <v>218.7486738677682</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
-        <v>347.4124432514906</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -23114,7 +23114,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>41.79445919734349</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>76.19166135816488</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.23872090402212</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23238,7 +23238,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W10" t="n">
         <v>286.0925768874155</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23269,19 +23269,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>106.1452301970803</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>123.2267623908141</v>
       </c>
       <c r="U11" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -23354,10 +23354,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>44.9588168423125</v>
       </c>
       <c r="X12" t="n">
-        <v>179.2018073029432</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
@@ -23475,7 +23475,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>220.99784859853</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23506,7 +23506,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>187.8179629116891</v>
       </c>
       <c r="G14" t="n">
         <v>414.8547654038309</v>
@@ -23515,7 +23515,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>291.4755850567336</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23563,7 +23563,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>44.95881684231247</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -23673,13 +23673,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23715,7 +23715,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>280.5705979155895</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23740,16 +23740,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
@@ -23797,7 +23797,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>151.3856985623177</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23861,13 +23861,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>9.458801139478624</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>192.9344050993417</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23946,13 +23946,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23992,7 +23992,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>55.46718390731331</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W20" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>96.5777917895669</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>143.8553402214395</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.90642962787</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24138,10 +24138,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>135.1354836983042</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H22" t="n">
         <v>161.6340720089168</v>
@@ -24189,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F23" t="n">
-        <v>370.9289938421815</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H23" t="n">
-        <v>63.86009604655089</v>
+        <v>319.5198430780904</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
         <v>0.6592771345624158</v>
@@ -24259,7 +24259,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.4777635765444</v>
@@ -24268,7 +24268,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -24293,19 +24293,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>30.12746102708331</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>15.5378988396881</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -24423,10 +24423,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24445,7 +24445,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -24457,10 +24457,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>140.5709580622284</v>
+        <v>305.0058057106467</v>
       </c>
       <c r="H26" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24493,19 +24493,19 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W26" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>57.81857910668015</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>22.59402348251047</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24648,10 +24648,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24663,7 +24663,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>280.5705979155895</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>92.20951148305693</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -24694,7 +24694,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
@@ -24736,19 +24736,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>108.9409394940712</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X29" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,10 +24818,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>228.8611694965568</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>44.16833865242023</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -24885,7 +24885,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
         <v>222.3574069614225</v>
@@ -24894,10 +24894,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V31" t="n">
-        <v>247.4143720951131</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24922,7 +24922,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
@@ -24931,7 +24931,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>373.4246613287099</v>
       </c>
       <c r="H32" t="n">
         <v>338.1439033881534</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>54.24941418091686</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.9487169456296</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>161.9879688231744</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -25046,19 +25046,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>140.2452874356751</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>156.313015219702</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -25089,7 +25089,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>161.6340720089168</v>
@@ -25128,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>49.41933934989927</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25153,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>251.1914480789361</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>87.60332115059845</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.0897557905713</v>
       </c>
       <c r="W36" t="n">
-        <v>23.97279119369736</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -25365,10 +25365,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
-        <v>49.41933934989927</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25405,16 +25405,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>32.02049628683994</v>
       </c>
       <c r="V38" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>11.5227711612352</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>93.3356012719897</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25563,10 +25563,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H40" t="n">
-        <v>150.6105342974165</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I40" t="n">
         <v>153.7585467974036</v>
@@ -25605,7 +25605,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
@@ -25651,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>151.7394087709382</v>
       </c>
       <c r="V41" t="n">
-        <v>310.5684383470187</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>76.2463096589521</v>
@@ -25709,7 +25709,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>17.6018688614447</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25763,7 +25763,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>50.24743635262988</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>161.6340720089168</v>
@@ -25833,7 +25833,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
@@ -25851,7 +25851,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>220.6183809604832</v>
+        <v>215.116822220809</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25873,13 +25873,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>173.2655878973476</v>
+        <v>173.2320982044833</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25888,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25933,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.72593483833347</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>195.5110413855951</v>
       </c>
       <c r="U45" t="n">
         <v>224.6571770672012</v>
@@ -26006,7 +26006,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>150.1761313635948</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -26085,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>510940.6129218347</v>
+        <v>510940.6129218348</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>510940.6129218347</v>
+        <v>510940.6129218348</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>510940.6129218347</v>
+        <v>510940.6129218348</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>510940.6129218347</v>
+        <v>510940.6129218349</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>510940.6129218349</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510940.6129218349</v>
+        <v>510940.6129218347</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>510940.6129218347</v>
+        <v>510940.6129218349</v>
       </c>
     </row>
   </sheetData>
@@ -26352,7 +26352,7 @@
         <v>103906.2743054104</v>
       </c>
       <c r="O2" t="n">
-        <v>103906.2743054103</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="P2" t="n">
         <v>103906.2743054104</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>8932.273136504818</v>
       </c>
       <c r="D4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.273136504817</v>
       </c>
       <c r="E4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="F4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="G4" t="n">
         <v>8932.273136504818</v>
@@ -26447,19 +26447,19 @@
         <v>8932.273136504818</v>
       </c>
       <c r="L4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="M4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="N4" t="n">
+        <v>8932.273136504818</v>
+      </c>
+      <c r="O4" t="n">
         <v>8932.27313650482</v>
       </c>
-      <c r="O4" t="n">
-        <v>8932.273136504818</v>
-      </c>
       <c r="P4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504817</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47248.86668520366</v>
+        <v>-58937.99570845955</v>
       </c>
       <c r="C6" t="n">
-        <v>44669.94568253616</v>
+        <v>32980.8166592803</v>
       </c>
       <c r="D6" t="n">
-        <v>44669.94568253618</v>
+        <v>32980.81665928027</v>
       </c>
       <c r="E6" t="n">
-        <v>78297.54568253615</v>
+        <v>66608.41665928026</v>
       </c>
       <c r="F6" t="n">
-        <v>78297.54568253616</v>
+        <v>66608.41665928026</v>
       </c>
       <c r="G6" t="n">
-        <v>78297.54568253613</v>
+        <v>66608.41665928026</v>
       </c>
       <c r="H6" t="n">
-        <v>78297.54568253615</v>
+        <v>66608.41665928026</v>
       </c>
       <c r="I6" t="n">
-        <v>78297.54568253613</v>
+        <v>66608.41665928024</v>
       </c>
       <c r="J6" t="n">
-        <v>6532.833194449908</v>
+        <v>-5156.295828805984</v>
       </c>
       <c r="K6" t="n">
-        <v>78297.54568253616</v>
+        <v>66608.41665928024</v>
       </c>
       <c r="L6" t="n">
-        <v>78297.54568253613</v>
+        <v>66608.41665928026</v>
       </c>
       <c r="M6" t="n">
-        <v>78297.54568253612</v>
+        <v>66608.41665928029</v>
       </c>
       <c r="N6" t="n">
-        <v>78297.54568253612</v>
+        <v>66608.41665928024</v>
       </c>
       <c r="O6" t="n">
-        <v>78297.5456825361</v>
+        <v>66608.41665928024</v>
       </c>
       <c r="P6" t="n">
-        <v>78297.54568253616</v>
+        <v>66608.41665928028</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
@@ -34792,13 +34792,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>86.32576966241803</v>
       </c>
       <c r="P3" t="n">
-        <v>184.9018174233233</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
         <v>204.4954085367308</v>
@@ -35020,13 +35020,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>216.1914763840507</v>
+        <v>110.4929583612564</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35035,7 +35035,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>212.4931427569136</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M11" t="n">
         <v>242.9064974359549</v>
@@ -35430,7 +35430,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>250.5834388302202</v>
+        <v>36.7853831762164</v>
       </c>
       <c r="M12" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>219.9611335109387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L14" t="n">
         <v>204.4954085367308</v>
@@ -35731,10 +35731,10 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>192.4911078726684</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>274.2838073416025</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
@@ -36141,7 +36141,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
-        <v>270.5854737144654</v>
+        <v>4.327620151005966</v>
       </c>
       <c r="P21" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N24" t="n">
-        <v>82.55611253552989</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N27" t="n">
         <v>274.2838073416025</v>
@@ -36691,7 +36691,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O30" t="n">
-        <v>196.2607649995565</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L32" t="n">
         <v>204.4954085367308</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>8.84853735049013</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>8.025953778143093</v>
       </c>
       <c r="N33" t="n">
         <v>274.2838073416025</v>
@@ -37165,10 +37165,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
@@ -37396,16 +37396,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>90.0241032895551</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O36" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>90.0241032895551</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>141.6613176266638</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>270.5854737144654</v>
+        <v>219.9611335109389</v>
       </c>
       <c r="P45" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
